--- a/ExcelAdactin.xlsx
+++ b/ExcelAdactin.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="OrderNo" r:id="rId3" sheetId="1"/>
+    <sheet name="OrderID" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>VZP4592E9Y</t>
+    <t>Lenin</t>
   </si>
 </sst>
 </file>
